--- a/biology/Médecine/Henri_Dubois-Roquebert/Henri_Dubois-Roquebert.xlsx
+++ b/biology/Médecine/Henri_Dubois-Roquebert/Henri_Dubois-Roquebert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henri Dubois-Roquebert, né le 12 mars 1891 en France et mort le 10 juillet 1971 à Skhirat, au Maroc, lors d'une tentative de coup d'État, est un médecin français installé au Maroc, où il est notamment le chirurgien du roi Mohammed V[1],[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henri Dubois-Roquebert, né le 12 mars 1891 en France et mort le 10 juillet 1971 à Skhirat, au Maroc, lors d'une tentative de coup d'État, est un médecin français installé au Maroc, où il est notamment le chirurgien du roi Mohammed V,. 
 </t>
         </is>
       </c>
@@ -511,17 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henri-Victor Dubois est le fils de Marie Roquebert et du journaliste Philippe Dubois, tous deux originaires de Belgique[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henri-Victor Dubois est le fils de Marie Roquebert et du journaliste Philippe Dubois, tous deux originaires de Belgique.
 Il effectue ses études de médecine et de chirurgie à l'Hôtel-Dieu de Paris où il est notamment chef de clinique de 1922 à 1932.
-Installation au Maroc
-Henri Dubois-Roquebert s'installe à Rabat à la suite d'un voyage à Munich qu'il effectua en 1931. Au cours de ce voyage, il fut témoin des manifestations pangermaniques qui commençaient tout juste à agiter l'Allemagne et qui devaient se conclure par la prise du pouvoir par Hitler et la fin de la paix en Europe. 
-En 1934, Henri Dubois-Roquebert confia à un architecte sicilien, François Allotta, la construction d'une clinique, de style art déco[réf. souhaitée].
-Il est introduit en 1934 auprès du futur roi du Maroc Mohamed V, alors Sultan Sidi Mohammed ben Youssef, afin d'effectuer un diagnostic complémentaire. Henri Dubois-Roquebert devient un médecin personnel du souverain, fonction qu'il occupa également pendant les dix premières années du règne d'Hassan II, de 1961 à sa mort en 1971[1].
-Henri Dubois-Roquebert devient un des proches de la famille royale marocaine. Mohamed V lui accorda toute confiance : ainsi, lors de son exil en Corse et à Madagascar (1953), pendant les événements préliminaires à l'indépendance du Maroc, il confia sa fortune au médecin, qui la mit en sécurité jusqu'à son intronisation[4]. Henri Dubois-Roquebert permit ainsi à la famille royale d'assumer ses besoins quotidiens et de préparer son retour au Maroc[1] ; il se rendit à plusieurs reprises auprès du roi à Antsirabe (Madagascar) ; au cours de l'un de ses séjours, il assura l'accouchement de la princesse Lalla Bahia, l'une des épouses du roi, qui donna naissance à la princesse Lalla Amina[4].
-Au début des années 1940, il se fait construire une résidence d'été à Amizmiz, dans le Haut Atlas, où le roi Mohammed V vint lui rendre visite[2].
-Henri Dubois-Roquebert est tué par balles le 10 juillet 1971 lors de la tentative de coup d'État menée par des militaires au palais de Skhirat[2].
 </t>
         </is>
       </c>
@@ -547,15 +554,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Distinctions</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Commandeur de la Légion d'honneur
-Grand officier de l'ordre du Ouissam alaouite
-Commandeur de l'ordre du Trône chérifien
-Officier du Ouissam du Loyalisme[1]</t>
+          <t>Installation au Maroc</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henri Dubois-Roquebert s'installe à Rabat à la suite d'un voyage à Munich qu'il effectua en 1931. Au cours de ce voyage, il fut témoin des manifestations pangermaniques qui commençaient tout juste à agiter l'Allemagne et qui devaient se conclure par la prise du pouvoir par Hitler et la fin de la paix en Europe. 
+En 1934, Henri Dubois-Roquebert confia à un architecte sicilien, François Allotta, la construction d'une clinique, de style art déco[réf. souhaitée].
+Il est introduit en 1934 auprès du futur roi du Maroc Mohamed V, alors Sultan Sidi Mohammed ben Youssef, afin d'effectuer un diagnostic complémentaire. Henri Dubois-Roquebert devient un médecin personnel du souverain, fonction qu'il occupa également pendant les dix premières années du règne d'Hassan II, de 1961 à sa mort en 1971.
+Henri Dubois-Roquebert devient un des proches de la famille royale marocaine. Mohamed V lui accorda toute confiance : ainsi, lors de son exil en Corse et à Madagascar (1953), pendant les événements préliminaires à l'indépendance du Maroc, il confia sa fortune au médecin, qui la mit en sécurité jusqu'à son intronisation. Henri Dubois-Roquebert permit ainsi à la famille royale d'assumer ses besoins quotidiens et de préparer son retour au Maroc ; il se rendit à plusieurs reprises auprès du roi à Antsirabe (Madagascar) ; au cours de l'un de ses séjours, il assura l'accouchement de la princesse Lalla Bahia, l'une des épouses du roi, qui donna naissance à la princesse Lalla Amina.
+Au début des années 1940, il se fait construire une résidence d'été à Amizmiz, dans le Haut Atlas, où le roi Mohammed V vint lui rendre visite.
+Henri Dubois-Roquebert est tué par balles le 10 juillet 1971 lors de la tentative de coup d'État menée par des militaires au palais de Skhirat.
+</t>
         </is>
       </c>
     </row>
@@ -580,12 +596,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Commandeur de la Légion d'honneur
+Grand officier de l'ordre du Ouissam alaouite
+Commandeur de l'ordre du Trône chérifien
+Officier du Ouissam du Loyalisme</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Henri_Dubois-Roquebert</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henri_Dubois-Roquebert</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Mohammed V, Hassan II, tels que je les ai connus, Tarik, 2003[5]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Mohammed V, Hassan II, tels que je les ai connus, Tarik, 2003</t>
         </is>
       </c>
     </row>
